--- a/relatorios/repasses_liberados/dentistas/70575481412/2023-08-25_relatorio_repasses_70575481412.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70575481412/2023-08-25_relatorio_repasses_70575481412.xlsx
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31486,7 +31486,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -32278,7 +32278,7 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N695">
         <v>0</v>
@@ -32498,7 +32498,7 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N700">
         <v>0</v>
@@ -32938,10 +32938,10 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N710">
-        <v>7.32</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="711" spans="1:14">
@@ -33026,10 +33026,10 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N712">
-        <v>7.919999999999999</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="713" spans="1:14">
@@ -33862,7 +33862,7 @@
         <v>0</v>
       </c>
       <c r="M731">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N731">
         <v>0</v>
@@ -35006,7 +35006,7 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N757">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N777">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N784">
         <v>0</v>
@@ -36238,7 +36238,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N785">
         <v>0</v>
@@ -36326,7 +36326,7 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N787">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N788">
         <v>0</v>
@@ -36766,7 +36766,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N798">
         <v>0</v>
@@ -36854,7 +36854,7 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N799">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N802">
         <v>0</v>
@@ -38130,7 +38130,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -38218,7 +38218,7 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N830">
         <v>0</v>
@@ -38394,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N834">
         <v>0</v>
@@ -38922,7 +38922,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N846">
         <v>0</v>
@@ -38966,7 +38966,7 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N847">
         <v>0</v>
@@ -41386,7 +41386,7 @@
         <v>0</v>
       </c>
       <c r="M902">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N902">
         <v>0</v>
@@ -41430,7 +41430,7 @@
         <v>0</v>
       </c>
       <c r="M903">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N903">
         <v>0</v>
@@ -41606,7 +41606,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N907">
         <v>0</v>
@@ -41694,7 +41694,7 @@
         <v>0</v>
       </c>
       <c r="M909">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N909">
         <v>0</v>
@@ -42706,7 +42706,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -42970,7 +42970,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -44994,7 +44994,7 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N984">
         <v>0</v>
@@ -46578,7 +46578,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -46622,7 +46622,7 @@
         <v>0</v>
       </c>
       <c r="M1021">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1021">
         <v>0</v>
@@ -49966,7 +49966,7 @@
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1097">
         <v>0</v>
@@ -50054,7 +50054,7 @@
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1099">
         <v>0</v>
@@ -50186,7 +50186,7 @@
         <v>0</v>
       </c>
       <c r="M1102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1102">
         <v>0</v>
@@ -50230,7 +50230,7 @@
         <v>0</v>
       </c>
       <c r="M1103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1103">
         <v>0</v>
@@ -50538,7 +50538,7 @@
         <v>0</v>
       </c>
       <c r="M1110">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1110">
         <v>0</v>
@@ -51902,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -51990,7 +51990,7 @@
         <v>0</v>
       </c>
       <c r="M1143">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1143">
         <v>0</v>
@@ -52122,7 +52122,7 @@
         <v>0</v>
       </c>
       <c r="M1146">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1146">
         <v>0</v>
@@ -52210,7 +52210,7 @@
         <v>0</v>
       </c>
       <c r="M1148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1148">
         <v>0</v>
@@ -52958,7 +52958,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53002,7 +53002,7 @@
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1166">
         <v>0</v>
@@ -53046,7 +53046,7 @@
         <v>0</v>
       </c>
       <c r="M1167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N1167">
         <v>0</v>
@@ -53178,7 +53178,7 @@
         <v>0</v>
       </c>
       <c r="M1170">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1170">
         <v>0</v>
@@ -53222,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="M1171">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1171">
         <v>0</v>
@@ -53266,7 +53266,7 @@
         <v>0</v>
       </c>
       <c r="M1172">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1172">
         <v>0</v>
@@ -53926,7 +53926,7 @@
         <v>0</v>
       </c>
       <c r="M1187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1187">
         <v>0</v>
@@ -54014,7 +54014,7 @@
         <v>0</v>
       </c>
       <c r="M1189">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1189">
         <v>0</v>
@@ -55334,7 +55334,7 @@
         <v>0</v>
       </c>
       <c r="M1219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1219">
         <v>0</v>
@@ -56478,7 +56478,7 @@
         <v>0</v>
       </c>
       <c r="M1245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1245">
         <v>0</v>
@@ -56522,7 +56522,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -56566,7 +56566,7 @@
         <v>0</v>
       </c>
       <c r="M1247">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1247">
         <v>0</v>
@@ -56610,7 +56610,7 @@
         <v>0</v>
       </c>
       <c r="M1248">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1248">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/70575481412/2023-08-25_relatorio_repasses_70575481412.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70575481412/2023-08-25_relatorio_repasses_70575481412.xlsx
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N13">
-        <v>1.605</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -14766,10 +14766,10 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N297">
-        <v>5.886</v>
+        <v>7.848000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -15294,10 +15294,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N309">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15778,10 +15778,10 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N320">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -16042,10 +16042,10 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N326">
-        <v>5.184</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -16438,10 +16438,10 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N335">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16658,10 +16658,10 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N340">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16702,10 +16702,10 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N341">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -16834,10 +16834,10 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N344">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -16878,10 +16878,10 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N345">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -16922,10 +16922,10 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N346">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -17626,10 +17626,10 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N362">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -17670,10 +17670,10 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N363">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -17890,10 +17890,10 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
-        <v>9.885</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -17978,10 +17978,10 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N370">
-        <v>17.721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -18110,10 +18110,10 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N373">
-        <v>5.748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -18154,10 +18154,10 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N374">
-        <v>12.306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -18638,10 +18638,10 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N385">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -18682,10 +18682,10 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N386">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -18902,10 +18902,10 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N391">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -18946,10 +18946,10 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N392">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -19166,10 +19166,10 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N397">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -19210,10 +19210,10 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N398">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -19254,10 +19254,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -19342,10 +19342,10 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N401">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -19386,10 +19386,10 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N402">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -19430,10 +19430,10 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N403">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -19474,10 +19474,10 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N404">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19606,10 +19606,10 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N407">
-        <v>5.748</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19650,10 +19650,10 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -19738,10 +19738,10 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N410">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -19782,10 +19782,10 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N411">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -20134,10 +20134,10 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N419">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -20178,10 +20178,10 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N420">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -20310,10 +20310,10 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -20354,10 +20354,10 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N424">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -20398,10 +20398,10 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N425">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -20442,10 +20442,10 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N426">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -20662,10 +20662,10 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N431">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -20706,10 +20706,10 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N432">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="433" spans="1:14">
@@ -20750,10 +20750,10 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -20794,10 +20794,10 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N434">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="435" spans="1:14">
@@ -20838,10 +20838,10 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N435">
-        <v>3.24</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -21102,10 +21102,10 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N441">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="442" spans="1:14">
@@ -21146,10 +21146,10 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N442">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="443" spans="1:14">
@@ -21366,10 +21366,10 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N447">
-        <v>3.201</v>
+        <v>4.268</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -21410,10 +21410,10 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N448">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -21718,10 +21718,10 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N455">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -21850,10 +21850,10 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N458">
-        <v>6.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -21982,10 +21982,10 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N461">
-        <v>5.748</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -22026,10 +22026,10 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N462">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="463" spans="1:14">
@@ -22070,10 +22070,10 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N463">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="464" spans="1:14">
@@ -22334,10 +22334,10 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N469">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="470" spans="1:14">
@@ -22730,10 +22730,10 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:14">
@@ -22774,10 +22774,10 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N479">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="480" spans="1:14">
@@ -22994,10 +22994,10 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N484">
-        <v>8.007</v>
+        <v>13.345</v>
       </c>
     </row>
     <row r="485" spans="1:14">
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N485">
-        <v>8.007</v>
+        <v>13.345</v>
       </c>
     </row>
     <row r="486" spans="1:14">
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N504">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="505" spans="1:14">
@@ -23918,10 +23918,10 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N505">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -23962,10 +23962,10 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N506">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="507" spans="1:14">
@@ -24402,10 +24402,10 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N516">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="517" spans="1:14">
@@ -24710,10 +24710,10 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N523">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="524" spans="1:14">
@@ -25150,10 +25150,10 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N533">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:14">
@@ -25238,10 +25238,10 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N535">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:14">
@@ -25590,10 +25590,10 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N543">
-        <v>8.819999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N545">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="546" spans="1:14">
@@ -26030,10 +26030,10 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N553">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="554" spans="1:14">
@@ -26162,10 +26162,10 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N556">
-        <v>8.819999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:14">
@@ -26294,10 +26294,10 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N559">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="560" spans="1:14">
@@ -26382,10 +26382,10 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N561">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="562" spans="1:14">
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N562">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:14">
@@ -26470,10 +26470,10 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -26602,10 +26602,10 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N566">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="567" spans="1:14">
@@ -26778,10 +26778,10 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N570">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -26822,10 +26822,10 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N571">
-        <v>7.898999999999999</v>
+        <v>10.532</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="M575">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N575">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576" spans="1:14">
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M576">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N576">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -27526,10 +27526,10 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N587">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="588" spans="1:14">
@@ -27790,10 +27790,10 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N593">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:14">
@@ -28054,10 +28054,10 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N599">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:14">
@@ -28098,10 +28098,10 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N600">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="601" spans="1:14">
@@ -28450,10 +28450,10 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N608">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:14">
@@ -28494,10 +28494,10 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N609">
-        <v>7.244999999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="610" spans="1:14">
@@ -28538,10 +28538,10 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N610">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:14">
@@ -28670,10 +28670,10 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N613">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:14">
@@ -29594,10 +29594,10 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N634">
-        <v>9.48</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -29638,10 +29638,10 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N635">
-        <v>9.48</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="636" spans="1:14">
@@ -29902,10 +29902,10 @@
         <v>0</v>
       </c>
       <c r="M641">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N641">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:14">
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N642">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="643" spans="1:14">
@@ -29990,10 +29990,10 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N643">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -30034,10 +30034,10 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N644">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="645" spans="1:14">
@@ -30078,10 +30078,10 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N645">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="646" spans="1:14">
@@ -30122,10 +30122,10 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N646">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:14">
@@ -30254,10 +30254,10 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N649">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:14">
@@ -30474,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N654">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -31178,7 +31178,7 @@
         <v>0</v>
       </c>
       <c r="M670">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N670">
         <v>0</v>
@@ -31266,7 +31266,7 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N672">
         <v>0</v>
@@ -31310,7 +31310,7 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N673">
         <v>0</v>
@@ -31354,7 +31354,7 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N674">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31486,7 +31486,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -31530,7 +31530,7 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N678">
         <v>0</v>
@@ -31574,7 +31574,7 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N679">
         <v>0</v>
@@ -31706,7 +31706,7 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N682">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="M683">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N683">
         <v>0</v>
@@ -31794,7 +31794,7 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N685">
         <v>0</v>
@@ -32146,7 +32146,7 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N692">
         <v>0</v>
@@ -32190,7 +32190,7 @@
         <v>0</v>
       </c>
       <c r="M693">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N693">
         <v>0</v>
@@ -32234,7 +32234,7 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N694">
         <v>0</v>
@@ -32410,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="M698">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N698">
         <v>0</v>
@@ -32498,7 +32498,7 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N700">
         <v>0</v>
@@ -32982,10 +32982,10 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N711">
-        <v>14.64</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="712" spans="1:14">
@@ -33026,10 +33026,10 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N712">
-        <v>10.56</v>
+        <v>7.919999999999999</v>
       </c>
     </row>
     <row r="713" spans="1:14">
@@ -33070,7 +33070,7 @@
         <v>0</v>
       </c>
       <c r="M713">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N713">
         <v>0</v>
@@ -33114,7 +33114,7 @@
         <v>0</v>
       </c>
       <c r="M714">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N714">
         <v>0</v>
@@ -33202,7 +33202,7 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N716">
         <v>0</v>
@@ -33290,7 +33290,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -33334,7 +33334,7 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N719">
         <v>0</v>
@@ -33686,7 +33686,7 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N727">
         <v>0</v>
@@ -33862,7 +33862,7 @@
         <v>0</v>
       </c>
       <c r="M731">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N731">
         <v>0</v>
@@ -33950,7 +33950,7 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N733">
         <v>0</v>
@@ -34082,7 +34082,7 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N736">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N737">
         <v>0</v>
@@ -34170,7 +34170,7 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N738">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
         <v>0</v>
@@ -34346,10 +34346,10 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N742">
-        <v>4.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -34390,10 +34390,10 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N743">
-        <v>4.32</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="744" spans="1:14">
@@ -34434,10 +34434,10 @@
         <v>0</v>
       </c>
       <c r="M744">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N744">
-        <v>10.56</v>
+        <v>7.919999999999999</v>
       </c>
     </row>
     <row r="745" spans="1:14">
@@ -34522,7 +34522,7 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N746">
         <v>0</v>
@@ -34610,10 +34610,10 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N748">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="749" spans="1:14">
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="M750">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N750">
-        <v>3.24</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="751" spans="1:14">
@@ -35006,7 +35006,7 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N757">
         <v>0</v>
@@ -35050,7 +35050,7 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N758">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N759">
         <v>0</v>
@@ -35226,10 +35226,10 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N762">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="763" spans="1:14">
@@ -35270,10 +35270,10 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N763">
-        <v>3.24</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="764" spans="1:14">
@@ -35314,10 +35314,10 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N764">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="765" spans="1:14">
@@ -35358,7 +35358,7 @@
         <v>0</v>
       </c>
       <c r="M765">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N765">
         <v>0</v>
@@ -35402,7 +35402,7 @@
         <v>0</v>
       </c>
       <c r="M766">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N766">
         <v>0</v>
@@ -35446,7 +35446,7 @@
         <v>0</v>
       </c>
       <c r="M767">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N767">
         <v>0</v>
@@ -35490,7 +35490,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N768">
         <v>0</v>
@@ -35534,7 +35534,7 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N769">
         <v>0</v>
@@ -35622,7 +35622,7 @@
         <v>0</v>
       </c>
       <c r="M771">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N771">
         <v>0</v>
@@ -35754,7 +35754,7 @@
         <v>0</v>
       </c>
       <c r="M774">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N774">
         <v>0</v>
@@ -35842,7 +35842,7 @@
         <v>0</v>
       </c>
       <c r="M776">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N776">
         <v>0</v>
@@ -35930,7 +35930,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N778">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N781">
         <v>0</v>
@@ -36106,7 +36106,7 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N782">
         <v>0</v>
@@ -36150,7 +36150,7 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N783">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N784">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N788">
         <v>0</v>
@@ -36634,7 +36634,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36678,7 +36678,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36766,7 +36766,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36898,7 +36898,7 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N800">
         <v>0</v>
@@ -37030,7 +37030,7 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N803">
         <v>0</v>
@@ -37118,7 +37118,7 @@
         <v>0</v>
       </c>
       <c r="M805">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N805">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N806">
-        <v>4.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="807" spans="1:14">
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="M807">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N807">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="808" spans="1:14">
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M813">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N813">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="M819">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N819">
         <v>0</v>
@@ -37778,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="M820">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N820">
         <v>0</v>
@@ -38042,7 +38042,7 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N826">
         <v>0</v>
@@ -38218,7 +38218,7 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N830">
         <v>0</v>
@@ -38262,7 +38262,7 @@
         <v>0</v>
       </c>
       <c r="M831">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N831">
         <v>0</v>
@@ -38394,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N834">
         <v>0</v>
@@ -38702,7 +38702,7 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N841">
         <v>0</v>
@@ -38746,7 +38746,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N842">
         <v>0</v>
@@ -38790,7 +38790,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N843">
         <v>0</v>
@@ -38922,7 +38922,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N846">
         <v>0</v>
@@ -38966,7 +38966,7 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N847">
         <v>0</v>
@@ -39186,7 +39186,7 @@
         <v>0</v>
       </c>
       <c r="M852">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N852">
         <v>0</v>
@@ -39230,7 +39230,7 @@
         <v>0</v>
       </c>
       <c r="M853">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N853">
         <v>0</v>
@@ -39274,7 +39274,7 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N854">
         <v>0</v>
@@ -39406,7 +39406,7 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N857">
         <v>0</v>
@@ -39450,7 +39450,7 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N858">
         <v>0</v>
@@ -39582,7 +39582,7 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N861">
         <v>0</v>
@@ -39626,7 +39626,7 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N862">
         <v>0</v>
@@ -39670,7 +39670,7 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N863">
         <v>0</v>
@@ -39890,7 +39890,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -39978,7 +39978,7 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N870">
         <v>0</v>
@@ -40198,7 +40198,7 @@
         <v>0</v>
       </c>
       <c r="M875">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N875">
         <v>0</v>
@@ -40242,7 +40242,7 @@
         <v>0</v>
       </c>
       <c r="M876">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N876">
         <v>0</v>
@@ -40286,7 +40286,7 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N877">
         <v>0</v>
@@ -40330,7 +40330,7 @@
         <v>0</v>
       </c>
       <c r="M878">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N878">
         <v>0</v>
@@ -40506,7 +40506,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -40638,7 +40638,7 @@
         <v>0</v>
       </c>
       <c r="M885">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N885">
         <v>0</v>
@@ -40770,7 +40770,7 @@
         <v>0</v>
       </c>
       <c r="M888">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N888">
         <v>0</v>
@@ -40814,7 +40814,7 @@
         <v>0</v>
       </c>
       <c r="M889">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N889">
         <v>0</v>
@@ -40858,7 +40858,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -41386,7 +41386,7 @@
         <v>0</v>
       </c>
       <c r="M902">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N902">
         <v>0</v>
@@ -41606,7 +41606,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N907">
         <v>0</v>
@@ -41650,7 +41650,7 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N908">
         <v>0</v>
@@ -41738,7 +41738,7 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N910">
         <v>0</v>
@@ -41914,7 +41914,7 @@
         <v>0</v>
       </c>
       <c r="M914">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N914">
         <v>0</v>
@@ -42002,7 +42002,7 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N916">
         <v>0</v>
@@ -42706,7 +42706,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -42750,7 +42750,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -42794,7 +42794,7 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N934">
         <v>0</v>
@@ -42838,7 +42838,7 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N935">
         <v>0</v>
@@ -43146,7 +43146,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -43718,7 +43718,7 @@
         <v>0</v>
       </c>
       <c r="M955">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N955">
         <v>0</v>
@@ -43806,7 +43806,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -44730,7 +44730,7 @@
         <v>0</v>
       </c>
       <c r="M978">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N978">
         <v>0</v>
@@ -44774,7 +44774,7 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N979">
         <v>0</v>
@@ -44906,7 +44906,7 @@
         <v>0</v>
       </c>
       <c r="M982">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N982">
         <v>0</v>
@@ -44994,7 +44994,7 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N984">
         <v>0</v>
@@ -45038,7 +45038,7 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N985">
         <v>0</v>
@@ -45126,7 +45126,7 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N987">
         <v>0</v>
@@ -45170,7 +45170,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -45214,7 +45214,7 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N989">
         <v>0</v>
@@ -45346,7 +45346,7 @@
         <v>0</v>
       </c>
       <c r="M992">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N992">
         <v>0</v>
@@ -45478,7 +45478,7 @@
         <v>0</v>
       </c>
       <c r="M995">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N995">
         <v>0</v>
@@ -45522,7 +45522,7 @@
         <v>0</v>
       </c>
       <c r="M996">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N996">
         <v>0</v>
@@ -45566,7 +45566,7 @@
         <v>0</v>
       </c>
       <c r="M997">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N997">
         <v>0</v>
@@ -46006,7 +46006,7 @@
         <v>0</v>
       </c>
       <c r="M1007">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1007">
         <v>0</v>
@@ -46094,7 +46094,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46138,7 +46138,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -46446,7 +46446,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -46490,7 +46490,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -46534,7 +46534,7 @@
         <v>0</v>
       </c>
       <c r="M1019">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1019">
         <v>0</v>
@@ -46578,7 +46578,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -46666,7 +46666,7 @@
         <v>0</v>
       </c>
       <c r="M1022">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1022">
         <v>0</v>
@@ -46710,7 +46710,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -46886,7 +46886,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -46930,7 +46930,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -47722,7 +47722,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -47766,7 +47766,7 @@
         <v>0</v>
       </c>
       <c r="M1047">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N1047">
         <v>0</v>
@@ -47810,7 +47810,7 @@
         <v>0</v>
       </c>
       <c r="M1048">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N1048">
         <v>0</v>
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="M1051">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1051">
         <v>0</v>
@@ -47986,7 +47986,7 @@
         <v>0</v>
       </c>
       <c r="M1052">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1052">
         <v>0</v>
@@ -48030,7 +48030,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1053">
         <v>0</v>
@@ -48074,7 +48074,7 @@
         <v>0</v>
       </c>
       <c r="M1054">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1054">
         <v>0</v>
@@ -48118,7 +48118,7 @@
         <v>0</v>
       </c>
       <c r="M1055">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1055">
         <v>0</v>
@@ -48250,7 +48250,7 @@
         <v>0</v>
       </c>
       <c r="M1058">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1058">
         <v>0</v>
@@ -48602,7 +48602,7 @@
         <v>0</v>
       </c>
       <c r="M1066">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1066">
         <v>0</v>
@@ -48690,7 +48690,7 @@
         <v>0</v>
       </c>
       <c r="M1068">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1068">
         <v>0</v>
@@ -48866,7 +48866,7 @@
         <v>0</v>
       </c>
       <c r="M1072">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1072">
         <v>0</v>
@@ -48998,7 +48998,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -49042,7 +49042,7 @@
         <v>0</v>
       </c>
       <c r="M1076">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1076">
         <v>0</v>
@@ -49086,7 +49086,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -49306,7 +49306,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -49350,7 +49350,7 @@
         <v>0</v>
       </c>
       <c r="M1083">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1083">
         <v>0</v>
@@ -49394,7 +49394,7 @@
         <v>0</v>
       </c>
       <c r="M1084">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1084">
         <v>0</v>
@@ -49570,7 +49570,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -49702,7 +49702,7 @@
         <v>0</v>
       </c>
       <c r="M1091">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1091">
         <v>0</v>
@@ -49746,7 +49746,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -49966,7 +49966,7 @@
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1097">
         <v>0</v>
@@ -50010,7 +50010,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1098">
         <v>0</v>
@@ -50054,7 +50054,7 @@
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1099">
         <v>0</v>
@@ -50362,7 +50362,7 @@
         <v>0</v>
       </c>
       <c r="M1106">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1106">
         <v>0</v>
@@ -50406,7 +50406,7 @@
         <v>0</v>
       </c>
       <c r="M1107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1107">
         <v>0</v>
@@ -50582,7 +50582,7 @@
         <v>0</v>
       </c>
       <c r="M1111">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1111">
         <v>0</v>
@@ -50626,7 +50626,7 @@
         <v>0</v>
       </c>
       <c r="M1112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1112">
         <v>0</v>
@@ -50670,7 +50670,7 @@
         <v>0</v>
       </c>
       <c r="M1113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1113">
         <v>0</v>
@@ -50714,7 +50714,7 @@
         <v>0</v>
       </c>
       <c r="M1114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1114">
         <v>0</v>
@@ -51110,7 +51110,7 @@
         <v>0</v>
       </c>
       <c r="M1123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1123">
         <v>0</v>
@@ -51242,7 +51242,7 @@
         <v>0</v>
       </c>
       <c r="M1126">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1126">
         <v>0</v>
@@ -51286,7 +51286,7 @@
         <v>0</v>
       </c>
       <c r="M1127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1127">
         <v>0</v>
@@ -51374,7 +51374,7 @@
         <v>0</v>
       </c>
       <c r="M1129">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1129">
         <v>0</v>
@@ -51638,7 +51638,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1135">
         <v>0</v>
@@ -51682,7 +51682,7 @@
         <v>0</v>
       </c>
       <c r="M1136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1136">
         <v>0</v>
@@ -51726,7 +51726,7 @@
         <v>0</v>
       </c>
       <c r="M1137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1137">
         <v>0</v>
@@ -51902,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -52034,7 +52034,7 @@
         <v>0</v>
       </c>
       <c r="M1144">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1144">
         <v>0</v>
@@ -52078,7 +52078,7 @@
         <v>0</v>
       </c>
       <c r="M1145">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1145">
         <v>0</v>
@@ -52122,7 +52122,7 @@
         <v>0</v>
       </c>
       <c r="M1146">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1146">
         <v>0</v>
@@ -52694,7 +52694,7 @@
         <v>0</v>
       </c>
       <c r="M1159">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1159">
         <v>0</v>
@@ -52738,7 +52738,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -52782,7 +52782,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -52826,10 +52826,10 @@
         <v>1</v>
       </c>
       <c r="M1162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1162">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1163" spans="1:14">
@@ -52958,7 +52958,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53002,7 +53002,7 @@
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1166">
         <v>0</v>
@@ -53046,7 +53046,7 @@
         <v>0</v>
       </c>
       <c r="M1167">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1167">
         <v>0</v>
@@ -53090,7 +53090,7 @@
         <v>0</v>
       </c>
       <c r="M1168">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1168">
         <v>0</v>
@@ -53134,7 +53134,7 @@
         <v>0</v>
       </c>
       <c r="M1169">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1169">
         <v>0</v>
@@ -53178,7 +53178,7 @@
         <v>0</v>
       </c>
       <c r="M1170">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1170">
         <v>0</v>
@@ -53222,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="M1171">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1171">
         <v>0</v>
@@ -53486,7 +53486,7 @@
         <v>0</v>
       </c>
       <c r="M1177">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1177">
         <v>0</v>
@@ -53750,7 +53750,7 @@
         <v>0</v>
       </c>
       <c r="M1183">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1183">
         <v>0</v>
@@ -54014,7 +54014,7 @@
         <v>0</v>
       </c>
       <c r="M1189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1189">
         <v>0</v>
@@ -54058,7 +54058,7 @@
         <v>0</v>
       </c>
       <c r="M1190">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1190">
         <v>0</v>
@@ -54190,7 +54190,7 @@
         <v>0</v>
       </c>
       <c r="M1193">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1193">
         <v>0</v>
@@ -54234,7 +54234,7 @@
         <v>0</v>
       </c>
       <c r="M1194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1194">
         <v>0</v>
@@ -54278,7 +54278,7 @@
         <v>0</v>
       </c>
       <c r="M1195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1195">
         <v>0</v>
@@ -54586,7 +54586,7 @@
         <v>0</v>
       </c>
       <c r="M1202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1202">
         <v>0</v>
@@ -54674,7 +54674,7 @@
         <v>0</v>
       </c>
       <c r="M1204">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1204">
         <v>0</v>
@@ -54850,7 +54850,7 @@
         <v>0</v>
       </c>
       <c r="M1208">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1208">
         <v>0</v>
@@ -55070,7 +55070,7 @@
         <v>0</v>
       </c>
       <c r="M1213">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1213">
         <v>0</v>
@@ -55114,7 +55114,7 @@
         <v>0</v>
       </c>
       <c r="M1214">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1214">
         <v>0</v>
@@ -55202,7 +55202,7 @@
         <v>0</v>
       </c>
       <c r="M1216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1216">
         <v>0</v>
@@ -55290,7 +55290,7 @@
         <v>0</v>
       </c>
       <c r="M1218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1218">
         <v>0</v>
@@ -56346,7 +56346,7 @@
         <v>0</v>
       </c>
       <c r="M1242">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1242">
         <v>0</v>
@@ -56390,7 +56390,7 @@
         <v>0</v>
       </c>
       <c r="M1243">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1243">
         <v>0</v>
@@ -56478,7 +56478,7 @@
         <v>0</v>
       </c>
       <c r="M1245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1245">
         <v>0</v>
@@ -56522,7 +56522,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -56566,7 +56566,7 @@
         <v>0</v>
       </c>
       <c r="M1247">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1247">
         <v>0</v>
@@ -56610,7 +56610,7 @@
         <v>0</v>
       </c>
       <c r="M1248">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1248">
         <v>0</v>
